--- a/HelaMedical/File/PolizavisDataBase.xlsx
+++ b/HelaMedical/File/PolizavisDataBase.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>Id</t>
   </si>
@@ -236,6 +236,24 @@
   </si>
   <si>
     <t>System.Collections.Generic.List`1[HelaMedical.Incitalization]</t>
+  </si>
+  <si>
+    <t>m,d nf</t>
+  </si>
+  <si>
+    <t>Мужской</t>
+  </si>
+  <si>
+    <t>26.10.1988</t>
+  </si>
+  <si>
+    <t>sdv</t>
+  </si>
+  <si>
+    <t>26.10.1988(Ориентировачная)</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -565,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG2"/>
+  <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD12"/>
@@ -573,7 +591,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -803,6 +821,56 @@
       </c>
       <c r="BG2" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/HelaMedical/File/PolizavisDataBase.xlsx
+++ b/HelaMedical/File/PolizavisDataBase.xlsx
@@ -2,19 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\HelaMedical\HelaMedical\File\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="136">
   <si>
     <t>Id</t>
   </si>
@@ -166,94 +159,274 @@
     <t>Интранозологическая  коморбидность</t>
   </si>
   <si>
+    <t xml:space="preserve"> Наркодиагноз алкогольный </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вид наркотика </t>
+  </si>
+  <si>
+    <t xml:space="preserve">способ употребления </t>
+  </si>
+  <si>
+    <t xml:space="preserve">год первого употребления </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стаж употребления </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ремисси </t>
+  </si>
+  <si>
+    <t>кол-во ремиссей</t>
+  </si>
+  <si>
+    <t>продолжительность ремиссии</t>
+  </si>
+  <si>
+    <t>наркодиагноз х</t>
+  </si>
+  <si>
     <t xml:space="preserve">возраст на момент смерти </t>
   </si>
   <si>
-    <t xml:space="preserve">Вид наркотика </t>
+    <t>возраст на момент регистрации</t>
+  </si>
+  <si>
+    <t>год учета</t>
   </si>
   <si>
     <t xml:space="preserve">регистратор </t>
   </si>
   <si>
-    <t xml:space="preserve"> Наркодиагноз алкогольный </t>
-  </si>
-  <si>
-    <t xml:space="preserve">способ употребления </t>
-  </si>
-  <si>
-    <t xml:space="preserve">год первого употребления </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стаж употребления </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ремисси </t>
-  </si>
-  <si>
-    <t>кол-во ремиссей</t>
-  </si>
-  <si>
-    <t>продолжительность ремиссии</t>
-  </si>
-  <si>
-    <t>наркодиагноз х</t>
-  </si>
-  <si>
-    <t>возраст на момент регистрации</t>
-  </si>
-  <si>
-    <t>лочвмт</t>
-  </si>
-  <si>
-    <t>Женский</t>
-  </si>
-  <si>
-    <t>юьбимт</t>
+    <t>Клеткин Андрей Викторович</t>
+  </si>
+  <si>
+    <t>Мужской</t>
+  </si>
+  <si>
+    <t>00.00.1973</t>
+  </si>
+  <si>
+    <t>Гомельская обл</t>
+  </si>
+  <si>
+    <t>Светлогорский р-н</t>
   </si>
   <si>
     <t>Город</t>
   </si>
   <si>
-    <t>ывм</t>
+    <t>г.Светлогорск, м-н 3, д.63, кв.146</t>
   </si>
   <si>
     <t>Холост</t>
   </si>
   <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Проживал с родителями</t>
+  </si>
+  <si>
+    <t>Среднее полное</t>
+  </si>
+  <si>
+    <t>слесарь</t>
+  </si>
+  <si>
+    <t>Физический труд</t>
+  </si>
+  <si>
+    <t>г.Светлогорск, ул.Школьная, 4</t>
+  </si>
+  <si>
+    <t>Выявление милицией</t>
+  </si>
+  <si>
+    <t>Не отягощена</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>По соматическому заболеванию</t>
+  </si>
+  <si>
+    <t>ЧМТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Работает. </t>
+  </si>
+  <si>
+    <t>219, 141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УЗ «Светлогорская центральная районная больница» 3 раз. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧМТ. Гепатит С. </t>
+  </si>
+  <si>
+    <t>УЗ</t>
+  </si>
+  <si>
+    <t>I-ЛЮ №0455322</t>
+  </si>
+  <si>
+    <t>S06 внутримозговое кровоизлияние внутрижелудочковое</t>
+  </si>
+  <si>
+    <t>Ненасильственная</t>
+  </si>
+  <si>
+    <t>лишение дееспособности</t>
+  </si>
+  <si>
+    <t>Более 20 лет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Водка или другие крепкие алкогольные напитки. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1024II, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алк. гепатит. Алк. энцефалопатия. </t>
+  </si>
+  <si>
+    <t>отвар мака, морфин, кодеин, героин, димедрол, эфедром</t>
+  </si>
+  <si>
+    <t>Парентерально</t>
+  </si>
+  <si>
+    <t>Более 15 лет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F14.1. </t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Пилецкий Дмитрий Николаевич</t>
+  </si>
+  <si>
+    <t>ул.Паричская, 1а</t>
+  </si>
+  <si>
+    <t>мастер ж/д путей</t>
+  </si>
+  <si>
+    <t>Протокол экстренного алкогольного (наркотического) освидетельствования</t>
+  </si>
+  <si>
+    <t>Не уточнено</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКНД 1 раз. УЗ «Светлогорская центральная районная больница» 2 раз. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧМТ. </t>
+  </si>
+  <si>
+    <t>Более 10 лет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1020II, f1052II, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алк. эпилепсия. </t>
+  </si>
+  <si>
+    <t>суррогаты опия</t>
+  </si>
+  <si>
+    <t>F11.1.</t>
+  </si>
+  <si>
+    <t>Хапанчук Александр Михайлович</t>
+  </si>
+  <si>
+    <t>ул.Мирошниченко, 2/32</t>
+  </si>
+  <si>
+    <t>Разведен</t>
+  </si>
+  <si>
     <t>Проживал один/одна</t>
   </si>
   <si>
-    <t>Начальное</t>
-  </si>
-  <si>
-    <t>ывюьмо</t>
-  </si>
-  <si>
-    <t>Физический труд</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>System.Collections.Generic.List`1[HelaMedical.Incitalization]</t>
-  </si>
-  <si>
-    <t>m,d nf</t>
-  </si>
-  <si>
-    <t>Мужской</t>
-  </si>
-  <si>
-    <t>26.10.1988</t>
-  </si>
-  <si>
-    <t>sdv</t>
-  </si>
-  <si>
-    <t>26.10.1988(Ориентировачная)</t>
-  </si>
-  <si>
-    <t>admin</t>
+    <t>Среднее специальное (Колледж, Техникум)</t>
+  </si>
+  <si>
+    <t>станочник</t>
+  </si>
+  <si>
+    <t>Полуавтоматический труд</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>73, 214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКНД 2 раз. УЗ «Светлогорская центральная районная больница» 2 раз. </t>
+  </si>
+  <si>
+    <t>ЧМТ. Перелом костей. Язва ДПК</t>
+  </si>
+  <si>
+    <t>Дрогое место</t>
+  </si>
+  <si>
+    <t>S06 тупая сочет. травма головы и живота</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жировой гепатоз. Алк. кардиомиопатия. Алк. энцефалопатия. </t>
+  </si>
+  <si>
+    <t>опий, героин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F11.1.F12.9. </t>
+  </si>
+  <si>
+    <t>Буткевич Андрей Васильевич</t>
+  </si>
+  <si>
+    <t>Деревня</t>
+  </si>
+  <si>
+    <t>Светлогорский р-н, г/п Паричи, ул.Шкловского, 36/20</t>
+  </si>
+  <si>
+    <t>Гражданский брак(сожительство)</t>
+  </si>
+  <si>
+    <t>Незаконченное среднее (Базовое)</t>
+  </si>
+  <si>
+    <t>каменщик</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧМТ. Туберкулезю ВИЧ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Водка или другие крепкие алкогольные напитки. Пиво. Суррогаты. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алк. панкреатит. Алк. полинейропатия. Алк. энцефалопатия. </t>
+  </si>
+  <si>
+    <t>вытяжка из мака</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F12.9. </t>
   </si>
 </sst>
 </file>
@@ -266,7 +439,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,11 +470,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -583,13 +756,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH3"/>
+  <dimension ref="A1:BH5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:60" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -731,7 +907,7 @@
         <v>45</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>45</v>
@@ -740,34 +916,37 @@
         <v>47</v>
       </c>
       <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>48</v>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
@@ -775,52 +954,148 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>33254</v>
+      </c>
+      <c r="S2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2">
+        <v>7</v>
+      </c>
+      <c r="AB2" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" t="s">
-        <v>68</v>
+      <c r="AC2" t="s">
+        <v>79</v>
       </c>
       <c r="AD2" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>41938</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY2">
+        <v>1990</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>94</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="BG2">
+        <v>2014</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.25">
@@ -828,76 +1103,365 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2">
+        <v>27428</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="Q3" s="2">
+        <v>33968</v>
+      </c>
+      <c r="S3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T3" t="s">
+        <v>100</v>
+      </c>
+      <c r="X3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>41910</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY3">
+        <v>1992</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE3">
+        <v>39</v>
+      </c>
+      <c r="BF3">
+        <v>17</v>
+      </c>
+      <c r="BG3">
+        <v>2014</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2">
+        <v>26724</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>38498</v>
+      </c>
+      <c r="S4" t="s">
         <v>73</v>
       </c>
-      <c r="I3" t="s">
+      <c r="T4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>10</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>41757</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY4">
+        <v>1990</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BE4">
+        <v>41</v>
+      </c>
+      <c r="BF4">
+        <v>32</v>
+      </c>
+      <c r="BG4">
+        <v>2014</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2">
+        <v>26618</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
         <v>63</v>
       </c>
-      <c r="J3">
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="AD3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ3" t="s">
+      <c r="L5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>32380</v>
+      </c>
+      <c r="S5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5" t="s">
         <v>74</v>
       </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>75</v>
+      <c r="U5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>41965</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY5">
+        <v>1988</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE5">
+        <v>42</v>
+      </c>
+      <c r="BF5">
+        <v>16</v>
+      </c>
+      <c r="BG5">
+        <v>2014</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>